--- a/1.2/left.xlsx
+++ b/1.2/left.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Dropbox/Documents/GitHub/students.mathsnz.com/1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="21600" windowHeight="10020"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="27780" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -134,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,9 +249,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -278,9 +284,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -463,16 +469,16 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="55.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -513,7 +519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>"&lt;a href='"&amp;H2&amp;".html'"&amp;I2&amp;"&gt;"</f>
         <v>&lt;a href='1.2_1.html'&gt;</v>
@@ -546,7 +552,7 @@
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A10" si="0">"&lt;a href='"&amp;H3&amp;".html'"&amp;I3&amp;"&gt;"</f>
         <v>&lt;a href='1.2_1_1.html' class='indent'&gt;</v>
@@ -622,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.2_1_2.html' class='indent'&gt;</v>
@@ -698,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.2_1_3.html' class='indent'&gt;</v>
@@ -774,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.2_2.html'&gt;</v>
@@ -807,7 +813,7 @@
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.2_2_1.html' class='indent'&gt;</v>
@@ -842,8 +848,8 @@
         <v>18</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" ref="N3:N10" si="7">"http://students.mathsnz.com/qg/onscreen.html#"&amp;O7&amp;","&amp;P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7&amp;","&amp;X7&amp;","</f>
-        <v>http://students.mathsnz.com/qg/onscreen.html#algebra2liketerms1,algebra2liketerms1,algebra2liketerms1,algebra2liketerms1,algebra2liketerms1,algebra2liketerms2,algebra2liketerms2,algebra2liketerms2,algebra2liketerms2,algebra2liketerms2,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O7&amp;","&amp;P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7&amp;","&amp;X7&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#algebra2liketerms1,algebra2liketerms1,algebra2liketerms1,algebra2liketerms1,algebra2liketerms1,algebra2liketerms2,algebra2liketerms2,algebra2liketerms2,algebra2liketerms2,algebra2liketerms2,</v>
       </c>
       <c r="O7" t="s">
         <v>26</v>
@@ -853,15 +859,15 @@
         <v>algebra2liketerms1</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" ref="Q7:S7" si="8">P7</f>
+        <f t="shared" ref="Q7:S7" si="7">P7</f>
         <v>algebra2liketerms1</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>algebra2liketerms1</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>algebra2liketerms1</v>
       </c>
       <c r="T7" t="s">
@@ -872,23 +878,23 @@
         <v>algebra2liketerms2</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" ref="V7:Y7" si="9">U7</f>
+        <f t="shared" ref="V7:Y7" si="8">U7</f>
         <v>algebra2liketerms2</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>algebra2liketerms2</v>
       </c>
       <c r="X7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>algebra2liketerms2</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>algebra2liketerms2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.2_2_2.html' class='indent'&gt;</v>
@@ -923,49 +929,49 @@
         <v>23</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#algebra2liketerms3,algebra2liketerms3,algebra2liketerms3,algebra2liketerms3,,0,0,algebra2liketerms4,algebra2liketerms4,algebra2liketerms4,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O8&amp;","&amp;P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8&amp;","&amp;U8&amp;","&amp;V8&amp;","&amp;W8&amp;","&amp;X8&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#algebra2liketerms3,algebra2liketerms3,algebra2liketerms3,algebra2liketerms3,,0,0,algebra2liketerms4,algebra2liketerms4,algebra2liketerms4,</v>
       </c>
       <c r="O8" t="s">
         <v>28</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" ref="P8:X10" si="10">O8</f>
+        <f t="shared" ref="P8:X10" si="9">O8</f>
         <v>algebra2liketerms3</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>algebra2liketerms3</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>algebra2liketerms3</v>
       </c>
       <c r="T8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V8" t="s">
         <v>29</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>algebra2liketerms4</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>algebra2liketerms4</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" ref="Y8:Y9" si="11">X8</f>
+        <f t="shared" ref="Y8:Y9" si="10">X8</f>
         <v>algebra2liketerms4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.2_2_3.html' class='indent'&gt;</v>
@@ -1000,49 +1006,49 @@
         <v>24</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>http://students.mathsnz.com/qg/onscreen.html#algebra2liketerms5,algebra2liketerms5,algebra2liketerms5,algebra2liketerms5,,0,0,algebra2liketerms6,algebra2liketerms6,algebra2liketerms6,</v>
+        <f>"https://students.mathsnz.com/qg/onscreen.html#"&amp;O9&amp;","&amp;P9&amp;","&amp;Q9&amp;","&amp;R9&amp;","&amp;S9&amp;","&amp;T9&amp;","&amp;U9&amp;","&amp;V9&amp;","&amp;W9&amp;","&amp;X9&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#algebra2liketerms5,algebra2liketerms5,algebra2liketerms5,algebra2liketerms5,,0,0,algebra2liketerms6,algebra2liketerms6,algebra2liketerms6,</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>algebra2liketerms5</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>algebra2liketerms5</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>algebra2liketerms5</v>
       </c>
       <c r="T9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V9" t="s">
         <v>31</v>
       </c>
       <c r="W9" t="str">
+        <f t="shared" si="9"/>
+        <v>algebra2liketerms6</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="9"/>
+        <v>algebra2liketerms6</v>
+      </c>
+      <c r="Y9" t="str">
         <f t="shared" si="10"/>
         <v>algebra2liketerms6</v>
       </c>
-      <c r="X9" t="str">
-        <f t="shared" si="10"/>
-        <v>algebra2liketerms6</v>
-      </c>
-      <c r="Y9" t="str">
-        <f t="shared" si="11"/>
-        <v>algebra2liketerms6</v>
-      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;a href='1.2_2_4.html' class='indent'&gt;</v>
@@ -1078,43 +1084,43 @@
       </c>
       <c r="N10" s="2"/>
       <c r="P10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" ref="Y10" si="12">X10</f>
+        <f t="shared" ref="Y10" si="11">X10</f>
         <v>0</v>
       </c>
     </row>
